--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9AF256-5354-4F91-A828-87773477F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383D499-981D-40AD-9EB7-5549A075407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="17280" windowHeight="8904" xr2:uid="{CC9F5062-8357-40F6-90ED-6ACD48B4BB45}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{CC9F5062-8357-40F6-90ED-6ACD48B4BB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -42,33 +42,9 @@
     <t>Risiko</t>
   </si>
   <si>
-    <t>Original Painting of an Eye</t>
-  </si>
-  <si>
-    <t>Fake Painting of an Eye</t>
-  </si>
-  <si>
-    <t>Original Painting of Fruits</t>
-  </si>
-  <si>
-    <t>Fake Painting of Fruits</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>PreisOptionen</t>
   </si>
   <si>
-    <t>20€;200€</t>
-  </si>
-  <si>
-    <t>10€;100€</t>
-  </si>
-  <si>
     <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/Kunst1.jpg</t>
   </si>
   <si>
@@ -81,17 +57,230 @@
     <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/Kunst_Gemuese.jpg</t>
   </si>
   <si>
-    <t>None</t>
+    <t>20;200</t>
+  </si>
+  <si>
+    <t>10;100</t>
+  </si>
+  <si>
+    <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/altermann_fake.jpeg</t>
+  </si>
+  <si>
+    <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/tree_fake.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/train_man_fake.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/train_echt.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/old_echt.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/chris/Desktop/Masterarbeit/Matlab/Experiment/code/birke_echt.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\frau1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\frau2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\foggy1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\gelb2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\spiegelung1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\spiegelung2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\bunthauser1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\bunthauser2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\TVblocks2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\TVblocks1.jpg</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 4</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 5</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 8</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 9</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 14</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 15</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 16</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 17</t>
+  </si>
+  <si>
+    <t>Info 1; Info 2; Info 3, Info 18</t>
+  </si>
+  <si>
+    <t>InfoRed</t>
+  </si>
+  <si>
+    <t>info 1; Info 2</t>
+  </si>
+  <si>
+    <t>info 1; Info 3</t>
+  </si>
+  <si>
+    <t>info 1; Info 6</t>
+  </si>
+  <si>
+    <t>info 1; Info 7</t>
+  </si>
+  <si>
+    <t>info 1; Info 12</t>
+  </si>
+  <si>
+    <t>info 1; Info 13</t>
+  </si>
+  <si>
+    <t>info 1; Info 14</t>
+  </si>
+  <si>
+    <t>info 1; Info 15</t>
+  </si>
+  <si>
+    <t>info 1; Info 16</t>
+  </si>
+  <si>
+    <t>Weiterverkauf</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Fake</t>
+  </si>
+  <si>
+    <t>OriginalFake</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\gelb1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\foggy2.jpg</t>
+  </si>
+  <si>
+    <t>Das Auge</t>
+  </si>
+  <si>
+    <t>Früchte</t>
+  </si>
+  <si>
+    <t>Birke</t>
+  </si>
+  <si>
+    <t>Mann im Zug</t>
+  </si>
+  <si>
+    <t>Alter Mann</t>
+  </si>
+  <si>
+    <t>Geheimnisvolle Frau</t>
+  </si>
+  <si>
+    <t>Nebel</t>
+  </si>
+  <si>
+    <t>Gelbes Abstraktes Gemälte</t>
+  </si>
+  <si>
+    <t>Spiegelung</t>
+  </si>
+  <si>
+    <t>Bunte abstrakte Häuser</t>
+  </si>
+  <si>
+    <t>Abstrakte Blöcke</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Gering</t>
+  </si>
+  <si>
+    <t>Kein Risiko</t>
+  </si>
+  <si>
+    <t>40;400</t>
+  </si>
+  <si>
+    <t>30;300</t>
+  </si>
+  <si>
+    <t>Keine Information verfügbar</t>
+  </si>
+  <si>
+    <t>Die Künstlerin ist weiblich; Die Künstlerin ist aus Deutschland; Das Bild passt nicht zu dem üblichen Stil der Künstlerin;  Das Gemälde wurde mit Aquarell und Tinte gefertigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Künstlerin ist weiblich; Die Künstlerin ist aus Lateinamerika; Das Gemälde wurde mit Aquarell und Tinte gemalt; Das Gemälde wurde im Jahr 2020 gefertigt; </t>
+  </si>
+  <si>
+    <t>Die Besitzgeschichte ist lückenhaft.; Das Gemälde hat Altersrisse.; Eine weibliche Künstlerin hat es gemalt.; Das Gemälde wurde auf Holz gemalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Künstlerin ist aus Lateinamerika; Das Gemälde wurde mit Aquarell und Tinte gemalt; Das Gemälde wurde im Jahr 2020 gefertigt; </t>
+  </si>
+  <si>
+    <t>Das Gemälde wurde mit Öl gemalt; Das Gemälde wurde auf eine Leinwand aus Baumwolle gemalt; Das Gemälde ist von einer realen Szene inspiriert; Der Künstler ist männlich</t>
+  </si>
+  <si>
+    <t>Das Gemälde wurde mit Öl gemalt; Das Gemälde wurde auf eine Leinwand aus Baumwolle gemalt; Der Künstler ist Männlich</t>
+  </si>
+  <si>
+    <t>Das Gemälde wurde mit Acryl gemalt; Das Gemälde wurde 1990 gemalt; Der Küstler ist männlich; Der Künstler ist bereits verstorben</t>
+  </si>
+  <si>
+    <t>Das Gemälde wurde mit Acryl gemalt; Das Gemälde wurde auf Holz gemalt; Der Künstler ist männlich; Der Künstler ist aus Frankreich</t>
+  </si>
+  <si>
+    <t>Die Künstlerin ist weiblich; Die Künstlerin ist aus Lateinamerika; Das Gemälde wurde mit Aquarell und Tinte gemalt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indo1; </t>
+  </si>
+  <si>
+    <t>Fragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frage1; Frage2; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +293,12 @@
       <color rgb="FFA709F5"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,11 +321,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,15 +644,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DC0430-5F6A-4F2F-8CBB-5847E217A10A}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.1015625" customWidth="1"/>
+    <col min="4" max="4" width="10.9453125" style="2"/>
+    <col min="6" max="6" width="10.9453125" style="2"/>
+    <col min="7" max="7" width="27.15625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.5234375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,109 +669,803 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2"/>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8">
+        <v>150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <v>400</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18">
+        <v>300</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20">
+        <v>250</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>